--- a/Project2Date.xlsx
+++ b/Project2Date.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mnscu-my.sharepoint.com/personal/yv3584fj_minnstate_edu/Documents/Spring 2021/CS 405-01/Projects/CPU_Scheduling_Simulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{027A260B-7C3C-D142-BCAF-D3E0FC2D93AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{327A0BFB-8B11-7A4B-B990-3369849E2E3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{C291A64C-FCA0-F542-9B2C-C7BA183D8C20}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{C291A64C-FCA0-F542-9B2C-C7BA183D8C20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,16 +48,10 @@
     <t>Round Robin Q= 10</t>
   </si>
   <si>
-    <t>Ave Wait time</t>
-  </si>
-  <si>
     <t>CPU Utilization</t>
   </si>
   <si>
     <t>Throughput</t>
-  </si>
-  <si>
-    <t>Ave Turn Around</t>
   </si>
   <si>
     <t>Scenario: Scenariodata</t>
@@ -73,6 +67,12 @@
   </si>
   <si>
     <t>Scenario: ScenariodataCpuBound</t>
+  </si>
+  <si>
+    <t>Avg Wait time</t>
+  </si>
+  <si>
+    <t>Avg Turn Around</t>
   </si>
 </sst>
 </file>
@@ -243,7 +243,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ave Wait time</c:v>
+                  <c:v>Avg Wait time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -474,7 +474,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ave Turn Around</c:v>
+                  <c:v>Avg Turn Around</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -834,7 +834,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ave Wait time</c:v>
+                  <c:v>Avg Wait time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1065,7 +1065,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ave Turn Around</c:v>
+                  <c:v>Avg Turn Around</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1426,7 +1426,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ave Wait time</c:v>
+                  <c:v>Avg Wait time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1657,7 +1657,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ave Turn Around</c:v>
+                  <c:v>Avg Turn Around</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2013,7 +2013,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ave Wait time</c:v>
+                  <c:v>Avg Wait time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2244,7 +2244,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ave Turn Around</c:v>
+                  <c:v>Avg Turn Around</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5135,7 +5135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFEDD19-ED41-B941-9426-A52EF109F9C1}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -5149,27 +5149,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>23.5</v>
@@ -5254,27 +5254,27 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -5359,27 +5359,27 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1">
         <v>62</v>
@@ -5464,27 +5464,27 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B30" s="1">
         <v>441</v>
